--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Col18a1-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0.5586043333333334</v>
+      </c>
+      <c r="H2">
+        <v>1.675813</v>
+      </c>
+      <c r="I2">
+        <v>0.01643366487114074</v>
+      </c>
+      <c r="J2">
+        <v>0.01643366487114074</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="F2">
+      <c r="L2">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G2">
-        <v>10.92859066666667</v>
-      </c>
-      <c r="H2">
-        <v>32.785772</v>
-      </c>
-      <c r="I2">
-        <v>0.2185558471001832</v>
-      </c>
-      <c r="J2">
-        <v>0.2185558471001832</v>
-      </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
       <c r="M2">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N2">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O2">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P2">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q2">
-        <v>23.24944371276756</v>
+        <v>0.05337185102833333</v>
       </c>
       <c r="R2">
-        <v>209.244993414908</v>
+        <v>0.480346659255</v>
       </c>
       <c r="S2">
-        <v>0.01341420337089473</v>
+        <v>0.0001692627750578015</v>
       </c>
       <c r="T2">
-        <v>0.01341420337089474</v>
+        <v>0.0001692627750578015</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H3">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J3">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P3">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q3">
-        <v>40.66727851703155</v>
+        <v>2.078668576523445</v>
       </c>
       <c r="R3">
-        <v>366.005506653284</v>
+        <v>18.708017188711</v>
       </c>
       <c r="S3">
-        <v>0.02346375041518541</v>
+        <v>0.006592261743011827</v>
       </c>
       <c r="T3">
-        <v>0.02346375041518542</v>
+        <v>0.006592261743011827</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10.92859066666667</v>
+        <v>0.5586043333333334</v>
       </c>
       <c r="H4">
-        <v>32.785772</v>
+        <v>1.675813</v>
       </c>
       <c r="I4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="J4">
-        <v>0.2185558471001832</v>
+        <v>0.01643366487114074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N4">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O4">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P4">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q4">
-        <v>314.8833991607129</v>
+        <v>3.049814313117333</v>
       </c>
       <c r="R4">
-        <v>2833.950592446416</v>
+        <v>27.448328818056</v>
       </c>
       <c r="S4">
-        <v>0.181677893314103</v>
+        <v>0.00967214035307111</v>
       </c>
       <c r="T4">
-        <v>0.181677893314103</v>
+        <v>0.00967214035307111</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>21.275312</v>
       </c>
       <c r="H5">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I5">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J5">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N5">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O5">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P5">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q5">
-        <v>45.26102073932267</v>
+        <v>2.03274968504</v>
       </c>
       <c r="R5">
-        <v>407.349186653904</v>
+        <v>18.29474716536</v>
       </c>
       <c r="S5">
-        <v>0.02611419629959337</v>
+        <v>0.00644663518424886</v>
       </c>
       <c r="T5">
-        <v>0.02611419629959336</v>
+        <v>0.00644663518424886</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>21.275312</v>
       </c>
       <c r="H6">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I6">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J6">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P6">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q6">
-        <v>79.16931515055468</v>
+        <v>79.16931515055467</v>
       </c>
       <c r="R6">
         <v>712.523836354992</v>
       </c>
       <c r="S6">
-        <v>0.04567822384416014</v>
+        <v>0.2510765080022182</v>
       </c>
       <c r="T6">
-        <v>0.04567822384416013</v>
+        <v>0.2510765080022182</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>21.275312</v>
       </c>
       <c r="H7">
-        <v>63.82593600000001</v>
+        <v>63.825936</v>
       </c>
       <c r="I7">
-        <v>0.4254751576214853</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="J7">
-        <v>0.4254751576214852</v>
+        <v>0.6259016025719319</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N7">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O7">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P7">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q7">
-        <v>613.0015081631788</v>
+        <v>116.156906027648</v>
       </c>
       <c r="R7">
-        <v>5517.013573468608</v>
+        <v>1045.412154248832</v>
       </c>
       <c r="S7">
-        <v>0.3536827374777318</v>
+        <v>0.3683784593854648</v>
       </c>
       <c r="T7">
-        <v>0.3536827374777317</v>
+        <v>0.3683784593854649</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H8">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I8">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J8">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N8">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O8">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P8">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q8">
-        <v>37.86712288425</v>
+        <v>1.16159292366</v>
       </c>
       <c r="R8">
-        <v>340.80410595825</v>
+        <v>10.45433631294</v>
       </c>
       <c r="S8">
-        <v>0.02184814801229176</v>
+        <v>0.00368386027387022</v>
       </c>
       <c r="T8">
-        <v>0.02184814801229175</v>
+        <v>0.00368386027387022</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H9">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I9">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J9">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P9">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q9">
-        <v>66.23611523775</v>
+        <v>45.240452834252</v>
       </c>
       <c r="R9">
-        <v>596.1250371397499</v>
+        <v>407.164075508268</v>
       </c>
       <c r="S9">
-        <v>0.03821617115979729</v>
+        <v>0.1434749674979785</v>
       </c>
       <c r="T9">
-        <v>0.03821617115979729</v>
+        <v>0.1434749674979785</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>17.79975</v>
+        <v>12.157548</v>
       </c>
       <c r="H10">
-        <v>53.39924999999999</v>
+        <v>36.472644</v>
       </c>
       <c r="I10">
-        <v>0.3559689952783316</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="J10">
-        <v>0.3559689952783315</v>
+        <v>0.3576647325569273</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N10">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O10">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P10">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q10">
-        <v>512.860802931</v>
+        <v>66.37661344579199</v>
       </c>
       <c r="R10">
-        <v>4615.747226379</v>
+        <v>597.3895210121281</v>
       </c>
       <c r="S10">
-        <v>0.2959046761062425</v>
+        <v>0.2105059047850786</v>
       </c>
       <c r="T10">
-        <v>0.2959046761062425</v>
+        <v>0.2105059047850786</v>
       </c>
     </row>
   </sheetData>
